--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A0_a0.1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A0_a0.1.xlsx
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
